--- a/verify_ga/schedule/source.alt/schedule_GA.xlsx
+++ b/verify_ga/schedule/source.alt/schedule_GA.xlsx
@@ -445,7 +445,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.877</v>
+        <v>0.785</v>
       </c>
     </row>
     <row r="3">
@@ -453,7 +453,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.877</v>
+        <v>0.785</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.877</v>
+        <v>0.785</v>
       </c>
     </row>
     <row r="5">
@@ -469,7 +469,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.877</v>
+        <v>0.859</v>
       </c>
     </row>
     <row r="6">
@@ -477,7 +477,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.877</v>
+        <v>0.859</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +485,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.877</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.877</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="9">
@@ -501,7 +501,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.909</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="10">
@@ -509,7 +509,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="12">
@@ -525,7 +525,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="13">
@@ -533,7 +533,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="14">
@@ -541,7 +541,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="15">
@@ -549,7 +549,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="16">
@@ -557,7 +557,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="17">
@@ -565,7 +565,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="18">
@@ -573,7 +573,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="19">
@@ -581,7 +581,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="20">
@@ -589,7 +589,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="21">
@@ -597,7 +597,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.915</v>
       </c>
     </row>
   </sheetData>
